--- a/Headers1.xlsx
+++ b/Headers1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Names" sheetId="2" r:id="rId1"/>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
